--- a/data/air_info/北京-上海.xlsx
+++ b/data/air_info/北京-上海.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\BJUT_dsc\data\air_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49A8838-B15C-478C-9D16-2D66C3066E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6E5D5F-62D1-4496-ACAE-D54DA46B8D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="111">
   <si>
     <t>行程时间：2 小时 15 分钟</t>
   </si>
@@ -42,19 +42,10 @@
     <t>行程时间：2 小时 30 分钟</t>
   </si>
   <si>
-    <t>行程时间：2 小时 10 分钟</t>
-  </si>
-  <si>
     <t>行程时间：2 小时 25 分钟</t>
   </si>
   <si>
-    <t>行程时间：1 小时 55 分钟</t>
-  </si>
-  <si>
     <t>行程时间：2 小时 40 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 5 分钟</t>
   </si>
   <si>
     <t>行程时间：2 小时 35 分钟</t>
@@ -242,6 +233,138 @@
   </si>
   <si>
     <t>机票价格</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 16 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 17 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 18 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 19 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 21 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 22 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 23 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 24 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 26 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 27 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 28 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 29 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 31 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 32 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 33 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 34 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 36 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 37 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 38 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 39 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 41 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 42 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 43 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 44 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 45 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 46 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 47 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 48 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 49 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 50 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 51 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 52 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 53 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 54 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 55 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 56 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 57 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 58 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 59 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 60 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 61 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 62 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 63 分钟</t>
+  </si>
+  <si>
+    <t>行程时间：2 小时 64 分钟</t>
   </si>
 </sst>
 </file>
@@ -596,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -610,25 +733,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" t="s">
         <v>66</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -636,7 +759,7 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -645,10 +768,10 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G2">
         <v>2220</v>
@@ -659,19 +782,19 @@
         <v>0.3125</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2">
         <v>0.40972222222222221</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G3">
         <v>2257</v>
@@ -682,19 +805,19 @@
         <v>0.3125</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2">
         <v>0.41666666666666669</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G4">
         <v>2039</v>
@@ -705,19 +828,19 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2">
         <v>0.41666666666666669</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>2018</v>
@@ -728,19 +851,19 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2">
         <v>0.4236111111111111</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>1852</v>
@@ -751,19 +874,19 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2">
         <v>0.42708333333333331</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <v>2021</v>
@@ -774,19 +897,19 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2">
         <v>0.44791666666666669</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G8">
         <v>2247</v>
@@ -797,19 +920,19 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2">
         <v>0.4548611111111111</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G9">
         <v>2117</v>
@@ -820,19 +943,19 @@
         <v>0.375</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2">
         <v>0.46875</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <v>2592</v>
@@ -843,19 +966,19 @@
         <v>0.375</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="D11" s="2">
         <v>0.4548611111111111</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G11">
         <v>1118</v>
@@ -866,19 +989,19 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="2">
         <v>0.49652777777777779</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G12">
         <v>1270</v>
@@ -889,19 +1012,19 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D13" s="2">
         <v>0.51041666666666663</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G13">
         <v>2747</v>
@@ -912,19 +1035,19 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="D14" s="2">
         <v>0.55555555555555558</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G14">
         <v>2741</v>
@@ -935,19 +1058,19 @@
         <v>0.47569444444444442</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="D15" s="2">
         <v>0.57638888888888884</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G15">
         <v>1547</v>
@@ -958,19 +1081,19 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D16" s="2">
         <v>0.57291666666666663</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G16">
         <v>2159</v>
@@ -981,19 +1104,19 @@
         <v>0.5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="2">
         <v>0.59027777777777779</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G17">
         <v>1281</v>
@@ -1004,19 +1127,19 @@
         <v>0.5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="D18" s="2">
         <v>0.59027777777777779</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G18">
         <v>2931</v>
@@ -1027,19 +1150,19 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D19" s="2">
         <v>0.61458333333333337</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G19">
         <v>2674</v>
@@ -1050,19 +1173,19 @@
         <v>0.5625</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="D20" s="2">
         <v>0.65625</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G20">
         <v>1417</v>
@@ -1073,19 +1196,19 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="D21" s="2">
         <v>0.68055555555555558</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>2751</v>
@@ -1096,19 +1219,19 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D22" s="2">
         <v>0.67708333333333337</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G22">
         <v>2342</v>
@@ -1119,19 +1242,19 @@
         <v>0.60069444444444442</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D23" s="2">
         <v>0.69444444444444442</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G23">
         <v>2799</v>
@@ -1142,19 +1265,19 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="D24" s="2">
         <v>0.71527777777777779</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G24">
         <v>2510</v>
@@ -1165,19 +1288,19 @@
         <v>0.61111111111111116</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="D25" s="2">
         <v>0.71527777777777779</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G25">
         <v>2004</v>
@@ -1188,19 +1311,19 @@
         <v>0.625</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D26" s="2">
         <v>0.72222222222222221</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G26">
         <v>1439</v>
@@ -1211,19 +1334,19 @@
         <v>0.65625</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D27" s="2">
         <v>0.75</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G27">
         <v>2510</v>
@@ -1234,19 +1357,19 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="D28" s="2">
         <v>0.76388888888888884</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G28">
         <v>2537</v>
@@ -1257,19 +1380,19 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="D29" s="2">
         <v>0.77083333333333337</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G29">
         <v>2894</v>
@@ -1280,19 +1403,19 @@
         <v>0.6875</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="D30" s="2">
         <v>0.77777777777777779</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G30">
         <v>2121</v>
@@ -1303,19 +1426,19 @@
         <v>0.6875</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="D31" s="2">
         <v>0.79166666666666663</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>2022</v>
@@ -1326,19 +1449,19 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D32" s="2">
         <v>0.80208333333333337</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G32">
         <v>1260</v>
@@ -1349,19 +1472,19 @@
         <v>0.71875</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="D33" s="2">
         <v>0.8125</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G33">
         <v>2177</v>
@@ -1372,19 +1495,19 @@
         <v>0.72569444444444442</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="D34" s="2">
         <v>0.83680555555555558</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G34">
         <v>2497</v>
@@ -1395,19 +1518,19 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="D35" s="2">
         <v>0.82638888888888884</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G35">
         <v>1751</v>
@@ -1418,19 +1541,19 @@
         <v>0.73263888888888884</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="D36" s="2">
         <v>0.82291666666666663</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G36">
         <v>1854</v>
@@ -1441,19 +1564,19 @@
         <v>0.74652777777777779</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="D37" s="2">
         <v>0.83680555555555558</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G37">
         <v>2318</v>
@@ -1464,19 +1587,19 @@
         <v>0.75</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="D38" s="2">
         <v>0.85763888888888884</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G38">
         <v>1025</v>
@@ -1487,19 +1610,19 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="D39" s="2">
         <v>0.875</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G39">
         <v>1360</v>
@@ -1510,19 +1633,19 @@
         <v>0.78819444444444442</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D40" s="2">
         <v>0.88194444444444442</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G40">
         <v>2181</v>
@@ -1533,19 +1656,19 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D41" s="2">
         <v>0.88888888888888884</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G41">
         <v>1034</v>
@@ -1556,19 +1679,19 @@
         <v>0.8125</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="D42" s="2">
         <v>0.90972222222222221</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G42">
         <v>1930</v>
@@ -1579,19 +1702,19 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="D43" s="2">
         <v>0.92361111111111116</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G43">
         <v>1140</v>
@@ -1602,19 +1725,19 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="D44" s="2">
         <v>0.92361111111111116</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G44">
         <v>1713</v>
@@ -1625,19 +1748,19 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="D45" s="2">
         <v>0.94097222222222221</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G45">
         <v>2742</v>
@@ -1648,19 +1771,19 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D46" s="2">
         <v>0.94444444444444442</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>1124</v>
@@ -1671,19 +1794,19 @@
         <v>0.86458333333333337</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D47" s="2">
         <v>0.96527777777777779</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G47">
         <v>2358</v>
@@ -1694,19 +1817,19 @@
         <v>0.86805555555555558</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="D48" s="2">
         <v>0.95833333333333337</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G48">
         <v>1217</v>
@@ -1717,19 +1840,19 @@
         <v>0.875</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="D49" s="2">
         <v>0.95486111111111116</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G49">
         <v>2754</v>
@@ -1740,19 +1863,19 @@
         <v>0.875</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="D50" s="2">
         <v>0.96180555555555558</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G50">
         <v>1970</v>
@@ -1763,19 +1886,19 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="D51" s="2">
         <v>0.97569444444444442</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G51">
         <v>2478</v>

--- a/data/air_info/北京-上海.xlsx
+++ b/data/air_info/北京-上海.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\BJUT_dsc\data\air_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6E5D5F-62D1-4496-ACAE-D54DA46B8D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAC5EDC-713C-4036-9301-3DB8A1919791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,24 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="111">
   <si>
-    <t>行程时间：2 小时 15 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 20 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 30 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 25 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 40 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 35 分钟</t>
-  </si>
-  <si>
     <t>东航 Airbus A320 MU 6865</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,136 +217,154 @@
     <t>机票价格</t>
   </si>
   <si>
-    <t>行程时间：2 小时 16 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 17 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 18 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 19 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 21 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 22 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 23 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 24 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 26 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 27 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 28 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 29 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 31 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 32 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 33 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 34 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 36 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 37 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 38 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 39 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 41 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 42 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 43 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 44 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 45 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 46 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 47 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 48 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 49 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 50 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 51 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 52 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 53 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 54 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 55 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 56 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 57 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 58 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 59 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 60 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 61 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 62 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 63 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 64 分钟</t>
+    <t>2 小时 15 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 16 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 17 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 18 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 19 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 20 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 21 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 22 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 23 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 24 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 25 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 26 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 27 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 28 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 29 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 30 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 31 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 32 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 33 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 34 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 35 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 36 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 37 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 38 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 39 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 40 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 41 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 42 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 43 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 44 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 45 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 46 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 47 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 48 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 49 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 50 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 51 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 52 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 53 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 54 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 55 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 56 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 57 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 58 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 59 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 60 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 61 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 62 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 63 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 64 分钟</t>
   </si>
 </sst>
 </file>
@@ -720,7 +720,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -729,29 +729,30 @@
     <col min="3" max="3" width="34.08984375" customWidth="1"/>
     <col min="4" max="5" width="33.7265625" customWidth="1"/>
     <col min="6" max="6" width="29.453125" customWidth="1"/>
+    <col min="7" max="7" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
         <v>60</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -759,19 +760,19 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2">
         <v>0.38541666666666669</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>2220</v>
@@ -782,19 +783,19 @@
         <v>0.3125</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2">
         <v>0.40972222222222221</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>2257</v>
@@ -805,19 +806,19 @@
         <v>0.3125</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D4" s="2">
         <v>0.41666666666666669</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>2039</v>
@@ -828,19 +829,19 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2">
         <v>0.41666666666666669</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <v>2018</v>
@@ -851,19 +852,19 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2">
         <v>0.4236111111111111</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <v>1852</v>
@@ -874,19 +875,19 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="D7" s="2">
         <v>0.42708333333333331</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G7">
         <v>2021</v>
@@ -897,19 +898,19 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D8" s="2">
         <v>0.44791666666666669</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <v>2247</v>
@@ -920,19 +921,19 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D9" s="2">
         <v>0.4548611111111111</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G9">
         <v>2117</v>
@@ -943,19 +944,19 @@
         <v>0.375</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D10" s="2">
         <v>0.46875</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G10">
         <v>2592</v>
@@ -966,19 +967,19 @@
         <v>0.375</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2">
         <v>0.4548611111111111</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G11">
         <v>1118</v>
@@ -989,19 +990,19 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="D12" s="2">
         <v>0.49652777777777779</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>1270</v>
@@ -1012,19 +1013,19 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2">
         <v>0.51041666666666663</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G13">
         <v>2747</v>
@@ -1035,19 +1036,19 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2">
         <v>0.55555555555555558</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G14">
         <v>2741</v>
@@ -1058,19 +1059,19 @@
         <v>0.47569444444444442</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D15" s="2">
         <v>0.57638888888888884</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G15">
         <v>1547</v>
@@ -1081,19 +1082,19 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D16" s="2">
         <v>0.57291666666666663</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G16">
         <v>2159</v>
@@ -1104,19 +1105,19 @@
         <v>0.5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="D17" s="2">
         <v>0.59027777777777779</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G17">
         <v>1281</v>
@@ -1127,19 +1128,19 @@
         <v>0.5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D18" s="2">
         <v>0.59027777777777779</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G18">
         <v>2931</v>
@@ -1150,19 +1151,19 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D19" s="2">
         <v>0.61458333333333337</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G19">
         <v>2674</v>
@@ -1173,19 +1174,19 @@
         <v>0.5625</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D20" s="2">
         <v>0.65625</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G20">
         <v>1417</v>
@@ -1196,19 +1197,19 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D21" s="2">
         <v>0.68055555555555558</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G21">
         <v>2751</v>
@@ -1219,19 +1220,19 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="D22" s="2">
         <v>0.67708333333333337</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G22">
         <v>2342</v>
@@ -1242,19 +1243,19 @@
         <v>0.60069444444444442</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D23" s="2">
         <v>0.69444444444444442</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G23">
         <v>2799</v>
@@ -1265,19 +1266,19 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24" s="2">
         <v>0.71527777777777779</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G24">
         <v>2510</v>
@@ -1288,19 +1289,19 @@
         <v>0.61111111111111116</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D25" s="2">
         <v>0.71527777777777779</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G25">
         <v>2004</v>
@@ -1311,19 +1312,19 @@
         <v>0.625</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="2">
         <v>0.72222222222222221</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G26">
         <v>1439</v>
@@ -1334,19 +1335,19 @@
         <v>0.65625</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="D27" s="2">
         <v>0.75</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G27">
         <v>2510</v>
@@ -1357,7 +1358,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>87</v>
@@ -1366,10 +1367,10 @@
         <v>0.76388888888888884</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G28">
         <v>2537</v>
@@ -1380,7 +1381,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>88</v>
@@ -1389,10 +1390,10 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G29">
         <v>2894</v>
@@ -1403,7 +1404,7 @@
         <v>0.6875</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>89</v>
@@ -1412,10 +1413,10 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G30">
         <v>2121</v>
@@ -1426,7 +1427,7 @@
         <v>0.6875</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>90</v>
@@ -1435,10 +1436,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G31">
         <v>2022</v>
@@ -1449,7 +1450,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>91</v>
@@ -1458,10 +1459,10 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G32">
         <v>1260</v>
@@ -1472,7 +1473,7 @@
         <v>0.71875</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>92</v>
@@ -1481,10 +1482,10 @@
         <v>0.8125</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G33">
         <v>2177</v>
@@ -1495,7 +1496,7 @@
         <v>0.72569444444444442</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>93</v>
@@ -1504,10 +1505,10 @@
         <v>0.83680555555555558</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G34">
         <v>2497</v>
@@ -1518,7 +1519,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>94</v>
@@ -1527,10 +1528,10 @@
         <v>0.82638888888888884</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G35">
         <v>1751</v>
@@ -1541,7 +1542,7 @@
         <v>0.73263888888888884</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>95</v>
@@ -1550,10 +1551,10 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G36">
         <v>1854</v>
@@ -1564,7 +1565,7 @@
         <v>0.74652777777777779</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>96</v>
@@ -1573,10 +1574,10 @@
         <v>0.83680555555555558</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G37">
         <v>2318</v>
@@ -1587,7 +1588,7 @@
         <v>0.75</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>97</v>
@@ -1596,10 +1597,10 @@
         <v>0.85763888888888884</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G38">
         <v>1025</v>
@@ -1610,7 +1611,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>98</v>
@@ -1619,10 +1620,10 @@
         <v>0.875</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G39">
         <v>1360</v>
@@ -1633,7 +1634,7 @@
         <v>0.78819444444444442</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>99</v>
@@ -1642,10 +1643,10 @@
         <v>0.88194444444444442</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G40">
         <v>2181</v>
@@ -1656,7 +1657,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>100</v>
@@ -1665,10 +1666,10 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G41">
         <v>1034</v>
@@ -1679,7 +1680,7 @@
         <v>0.8125</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>101</v>
@@ -1688,10 +1689,10 @@
         <v>0.90972222222222221</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G42">
         <v>1930</v>
@@ -1702,7 +1703,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>102</v>
@@ -1711,10 +1712,10 @@
         <v>0.92361111111111116</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G43">
         <v>1140</v>
@@ -1725,7 +1726,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>103</v>
@@ -1734,10 +1735,10 @@
         <v>0.92361111111111116</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G44">
         <v>1713</v>
@@ -1748,7 +1749,7 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>104</v>
@@ -1757,10 +1758,10 @@
         <v>0.94097222222222221</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G45">
         <v>2742</v>
@@ -1771,7 +1772,7 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>105</v>
@@ -1780,10 +1781,10 @@
         <v>0.94444444444444442</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G46">
         <v>1124</v>
@@ -1794,7 +1795,7 @@
         <v>0.86458333333333337</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>106</v>
@@ -1803,10 +1804,10 @@
         <v>0.96527777777777779</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G47">
         <v>2358</v>
@@ -1817,7 +1818,7 @@
         <v>0.86805555555555558</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>107</v>
@@ -1826,10 +1827,10 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G48">
         <v>1217</v>
@@ -1840,7 +1841,7 @@
         <v>0.875</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>108</v>
@@ -1849,10 +1850,10 @@
         <v>0.95486111111111116</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G49">
         <v>2754</v>
@@ -1863,7 +1864,7 @@
         <v>0.875</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>109</v>
@@ -1872,10 +1873,10 @@
         <v>0.96180555555555558</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G50">
         <v>1970</v>
@@ -1886,7 +1887,7 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>110</v>
@@ -1895,10 +1896,10 @@
         <v>0.97569444444444442</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G51">
         <v>2478</v>

--- a/data/air_info/北京-上海.xlsx
+++ b/data/air_info/北京-上海.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\BJUT_dsc\data\air_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAC5EDC-713C-4036-9301-3DB8A1919791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A6468E-BA12-4C04-B17C-A2D67CEE3B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="109">
   <si>
     <t>东航 Airbus A320 MU 6865</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,9 +178,6 @@
     <t>东航 Boeing 777 MU 5128</t>
   </si>
   <si>
-    <t>海航 Airbus A330 HU 7609</t>
-  </si>
-  <si>
     <t>东航 Boeing 777 MU 5166</t>
   </si>
   <si>
@@ -220,9 +217,6 @@
     <t>2 小时 15 分钟</t>
   </si>
   <si>
-    <t>2 小时 16 分钟</t>
-  </si>
-  <si>
     <t>2 小时 17 分钟</t>
   </si>
   <si>
@@ -361,10 +355,12 @@
     <t>2 小时 62 分钟</t>
   </si>
   <si>
-    <t>2 小时 63 分钟</t>
-  </si>
-  <si>
-    <t>2 小时 64 分钟</t>
+    <t>2 小时 25 分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 小时 20 分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -717,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -734,25 +730,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" t="s">
         <v>59</v>
-      </c>
-      <c r="G1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -760,16 +756,16 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2">
         <v>0.38541666666666669</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
@@ -783,16 +779,16 @@
         <v>0.3125</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="D3" s="2">
         <v>0.40972222222222221</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1</v>
@@ -806,16 +802,16 @@
         <v>0.3125</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2">
         <v>0.41666666666666669</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>2</v>
@@ -829,16 +825,16 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2">
         <v>0.41666666666666669</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>3</v>
@@ -852,16 +848,16 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2">
         <v>0.4236111111111111</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>4</v>
@@ -875,16 +871,16 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2">
         <v>0.42708333333333331</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>5</v>
@@ -898,16 +894,16 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2">
         <v>0.44791666666666669</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>6</v>
@@ -921,16 +917,16 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D9" s="2">
         <v>0.4548611111111111</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>7</v>
@@ -944,16 +940,16 @@
         <v>0.375</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D10" s="2">
         <v>0.46875</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>8</v>
@@ -967,16 +963,16 @@
         <v>0.375</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11" s="2">
         <v>0.4548611111111111</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
@@ -990,16 +986,16 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D12" s="2">
         <v>0.49652777777777779</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
@@ -1013,16 +1009,16 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D13" s="2">
         <v>0.51041666666666663</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>11</v>
@@ -1036,16 +1032,16 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D14" s="2">
         <v>0.55555555555555558</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>12</v>
@@ -1059,16 +1055,16 @@
         <v>0.47569444444444442</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D15" s="2">
         <v>0.57638888888888884</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>13</v>
@@ -1082,16 +1078,16 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2">
         <v>0.57291666666666663</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>14</v>
@@ -1105,16 +1101,16 @@
         <v>0.5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D17" s="2">
         <v>0.59027777777777779</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>15</v>
@@ -1128,16 +1124,16 @@
         <v>0.5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D18" s="2">
         <v>0.59027777777777779</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>16</v>
@@ -1151,16 +1147,16 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D19" s="2">
         <v>0.61458333333333337</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>17</v>
@@ -1174,16 +1170,16 @@
         <v>0.5625</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D20" s="2">
         <v>0.65625</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>18</v>
@@ -1197,16 +1193,16 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D21" s="2">
         <v>0.68055555555555558</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>19</v>
@@ -1220,16 +1216,16 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D22" s="2">
         <v>0.67708333333333337</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>20</v>
@@ -1243,16 +1239,16 @@
         <v>0.60069444444444442</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D23" s="2">
         <v>0.69444444444444442</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>21</v>
@@ -1266,16 +1262,16 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D24" s="2">
         <v>0.71527777777777779</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>22</v>
@@ -1289,16 +1285,16 @@
         <v>0.61111111111111116</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D25" s="2">
         <v>0.71527777777777779</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>23</v>
@@ -1312,16 +1308,16 @@
         <v>0.625</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D26" s="2">
         <v>0.72222222222222221</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>24</v>
@@ -1335,16 +1331,16 @@
         <v>0.65625</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="2">
         <v>0.75</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>25</v>
@@ -1358,16 +1354,16 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="2">
         <v>0.76388888888888884</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>26</v>
@@ -1381,16 +1377,16 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D29" s="2">
         <v>0.77083333333333337</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>27</v>
@@ -1404,16 +1400,16 @@
         <v>0.6875</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D30" s="2">
         <v>0.77777777777777779</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>28</v>
@@ -1427,16 +1423,16 @@
         <v>0.6875</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D31" s="2">
         <v>0.79166666666666663</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>29</v>
@@ -1450,16 +1446,16 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D32" s="2">
         <v>0.80208333333333337</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>30</v>
@@ -1473,16 +1469,16 @@
         <v>0.71875</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D33" s="2">
         <v>0.8125</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>31</v>
@@ -1496,16 +1492,16 @@
         <v>0.72569444444444442</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D34" s="2">
         <v>0.83680555555555558</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>32</v>
@@ -1519,16 +1515,16 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D35" s="2">
         <v>0.82638888888888884</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>33</v>
@@ -1542,16 +1538,16 @@
         <v>0.73263888888888884</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D36" s="2">
         <v>0.82291666666666663</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>34</v>
@@ -1565,16 +1561,16 @@
         <v>0.74652777777777779</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D37" s="2">
         <v>0.83680555555555558</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>35</v>
@@ -1588,16 +1584,16 @@
         <v>0.75</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D38" s="2">
         <v>0.85763888888888884</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>36</v>
@@ -1611,16 +1607,16 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D39" s="2">
         <v>0.875</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>37</v>
@@ -1634,16 +1630,16 @@
         <v>0.78819444444444442</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D40" s="2">
         <v>0.88194444444444442</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>38</v>
@@ -1657,16 +1653,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D41" s="2">
         <v>0.88888888888888884</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>39</v>
@@ -1680,16 +1676,16 @@
         <v>0.8125</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D42" s="2">
         <v>0.90972222222222221</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>40</v>
@@ -1703,16 +1699,16 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D43" s="2">
         <v>0.92361111111111116</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>41</v>
@@ -1726,16 +1722,16 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D44" s="2">
         <v>0.92361111111111116</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>42</v>
@@ -1749,16 +1745,16 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D45" s="2">
         <v>0.94097222222222221</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>43</v>
@@ -1772,16 +1768,16 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D46" s="2">
         <v>0.94444444444444442</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>44</v>
@@ -1795,16 +1791,16 @@
         <v>0.86458333333333337</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D47" s="2">
         <v>0.96527777777777779</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>45</v>
@@ -1818,16 +1814,16 @@
         <v>0.86805555555555558</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D48" s="2">
         <v>0.95833333333333337</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>46</v>
@@ -1841,16 +1837,16 @@
         <v>0.875</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D49" s="2">
         <v>0.95486111111111116</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>47</v>
@@ -1861,47 +1857,24 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>0.875</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D50" s="2">
-        <v>0.96180555555555558</v>
+        <v>0.99652777777777779</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G50">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D51" s="2">
-        <v>0.97569444444444442</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G51">
         <v>2478</v>
       </c>
     </row>
